--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/17.Lô 5-2023/2TB_TG102LE-4G_071223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/17.Lô 5-2023/2TB_TG102LE-4G_071223.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
